--- a/Saved_file/EM003/2026_09/work_logs_EM003_2026_09.xlsx
+++ b/Saved_file/EM003/2026_09/work_logs_EM003_2026_09.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-09-04 17:12:33</t>
+          <t>2026-09-09 19:58:02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260904_000</t>
+          <t>SESS_20260909_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,12 +511,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17:12:33</t>
+          <t>19:58:02</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -528,12 +528,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-09-02 10:49:48</t>
+          <t>2026-09-03 20:01:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260902_001</t>
+          <t>SESS_20260903_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10:49:48</t>
+          <t>20:01:36</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-09-14 08:03:51</t>
+          <t>2026-09-21 19:41:48</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.701</t>
+          <t>Mouse anomaly detected - Score: 0.889</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260914_002</t>
+          <t>SESS_20260921_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08:03:51</t>
+          <t>19:41:48</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -628,17 +628,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-09-11 13:56:26</t>
+          <t>2026-09-12 10:57:38</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.939</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260911_003</t>
+          <t>SESS_20260912_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -661,34 +661,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13:56:26</t>
+          <t>10:57:38</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-09-15 15:10:58</t>
+          <t>2026-09-07 19:36:24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.331</t>
+          <t>Mouse anomaly detected - Score: 0.897</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260915_004</t>
+          <t>SESS_20260907_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,29 +711,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15:10:58</t>
+          <t>19:36:24</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-09-26 09:23:17</t>
+          <t>2026-09-11 19:56:13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260926_005</t>
+          <t>SESS_20260911_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -761,12 +761,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09:23:17</t>
+          <t>19:56:13</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -778,12 +778,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-09-11 13:44:21</t>
+          <t>2026-09-06 10:51:02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260911_006</t>
+          <t>SESS_20260906_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13:44:21</t>
+          <t>10:51:02</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -828,17 +828,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-09-12 19:46:23</t>
+          <t>2026-09-04 20:58:43</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.454</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260912_007</t>
+          <t>SESS_20260904_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>19:46:23</t>
+          <t>20:58:43</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-09-09 16:02:55</t>
+          <t>2026-09-25 15:41:10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260909_008</t>
+          <t>SESS_20260925_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:02:55</t>
+          <t>15:41:10</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -928,17 +928,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-09-22 18:45:40</t>
+          <t>2026-09-28 14:20:13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.799</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260922_009</t>
+          <t>SESS_20260928_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -961,34 +961,34 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>18:45:40</t>
+          <t>14:20:13</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-09-13 15:38:54</t>
+          <t>2026-09-03 16:35:38</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.825</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260913_010</t>
+          <t>SESS_20260903_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1011,34 +1011,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15:38:54</t>
+          <t>16:35:38</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-09-26 12:23:04</t>
+          <t>2026-09-20 14:39:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.344</t>
+          <t>Face verification failed - Similarity: 0.497</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20260926_011</t>
+          <t>SESS_20260920_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12:23:04</t>
+          <t>14:39:11</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1078,17 +1078,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-09-16 19:15:25</t>
+          <t>2026-09-05 16:40:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.388</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20260916_012</t>
+          <t>SESS_20260905_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1111,29 +1111,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19:15:25</t>
+          <t>16:40:34</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-09-16 20:20:43</t>
+          <t>2026-09-26 17:47:35</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SESS_20260916_013</t>
+          <t>SESS_20260926_013</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20:20:43</t>
+          <t>17:47:35</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1178,17 +1178,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-09-03 10:57:40</t>
+          <t>2026-09-28 18:32:09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.353</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SESS_20260903_014</t>
+          <t>SESS_20260928_014</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1211,67 +1211,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10:57:40</t>
+          <t>18:32:09</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2026-09-06 11:20:48</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANOMALY_DETECTED</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.784</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SESS_20260906_015</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2026-09-06</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>11:20:48</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1379,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-09-01 16:59:23</t>
+          <t>2026-09-01 11:51:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1439,7 +1389,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.299</t>
+          <t>Mouse session - Score: 0.328</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1467,7 +1417,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:59:23</t>
+          <t>11:51:09</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1476,58 +1426,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>28216</v>
+        <v>17315</v>
       </c>
       <c r="L2" t="n">
-        <v>28216</v>
+        <v>17315</v>
       </c>
       <c r="M2" t="n">
-        <v>33398.13</v>
+        <v>27634.74</v>
       </c>
       <c r="N2" t="n">
-        <v>20038.88</v>
+        <v>16580.84</v>
       </c>
       <c r="O2" t="n">
-        <v>13359.25</v>
+        <v>11053.89</v>
       </c>
       <c r="P2" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>82.06</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>407</v>
+        <v>336.7</v>
       </c>
       <c r="T2" t="n">
-        <v>7.36</v>
+        <v>25.85</v>
       </c>
       <c r="U2" t="n">
-        <v>244.2</v>
+        <v>202.02</v>
       </c>
       <c r="V2" t="n">
-        <v>162.8</v>
+        <v>134.68</v>
       </c>
       <c r="W2" t="n">
-        <v>21.64</v>
+        <v>13.42</v>
       </c>
       <c r="X2" t="n">
-        <v>10.39</v>
+        <v>3.34</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.06</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.299</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-09-01 10:16:23</t>
+          <t>2026-09-01 13:58:09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1537,7 +1487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.250</t>
+          <t>Mouse session - Score: 0.258</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1565,7 +1515,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10:16:23</t>
+          <t>13:58:09</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1574,58 +1524,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>21043</v>
+        <v>11682</v>
       </c>
       <c r="L3" t="n">
-        <v>21043</v>
+        <v>11682</v>
       </c>
       <c r="M3" t="n">
-        <v>19857.42</v>
+        <v>39695.86</v>
       </c>
       <c r="N3" t="n">
-        <v>11914.45</v>
+        <v>23817.52</v>
       </c>
       <c r="O3" t="n">
-        <v>7942.97</v>
+        <v>15878.34</v>
       </c>
       <c r="P3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="R3" t="n">
-        <v>67</v>
+        <v>148.52</v>
       </c>
       <c r="S3" t="n">
-        <v>296.38</v>
+        <v>267.27</v>
       </c>
       <c r="T3" t="n">
-        <v>32.27</v>
+        <v>33.56</v>
       </c>
       <c r="U3" t="n">
-        <v>177.83</v>
+        <v>160.36</v>
       </c>
       <c r="V3" t="n">
-        <v>118.55</v>
+        <v>106.91</v>
       </c>
       <c r="W3" t="n">
-        <v>27.63</v>
+        <v>18.07</v>
       </c>
       <c r="X3" t="n">
-        <v>14.97</v>
+        <v>5.89</v>
       </c>
       <c r="Y3" t="n">
-        <v>67</v>
+        <v>148.52</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.25</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-09-01 11:08:45</t>
+          <t>2026-09-01 16:01:51</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1635,7 +1585,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.293</t>
+          <t>Mouse session - Score: 0.252</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1663,7 +1613,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11:08:45</t>
+          <t>16:01:51</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1672,58 +1622,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>19974</v>
+        <v>14073</v>
       </c>
       <c r="L4" t="n">
-        <v>19974</v>
+        <v>14073</v>
       </c>
       <c r="M4" t="n">
-        <v>14514.92</v>
+        <v>6599.03</v>
       </c>
       <c r="N4" t="n">
-        <v>8708.950000000001</v>
+        <v>3959.42</v>
       </c>
       <c r="O4" t="n">
-        <v>5805.97</v>
+        <v>2639.61</v>
       </c>
       <c r="P4" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>91.61</v>
+        <v>37.77</v>
       </c>
       <c r="S4" t="n">
-        <v>158.43</v>
+        <v>174.72</v>
       </c>
       <c r="T4" t="n">
-        <v>28.17</v>
+        <v>29.18</v>
       </c>
       <c r="U4" t="n">
-        <v>95.06</v>
+        <v>104.83</v>
       </c>
       <c r="V4" t="n">
-        <v>63.37</v>
+        <v>69.89</v>
       </c>
       <c r="W4" t="n">
-        <v>6.74</v>
+        <v>13.22</v>
       </c>
       <c r="X4" t="n">
-        <v>5.35</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>91.61</v>
+        <v>37.77</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.293</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-09-02 09:43:28</t>
+          <t>2026-09-02 12:35:13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1733,7 +1683,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.399</t>
+          <t>Mouse session - Score: 0.436</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1761,7 +1711,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>09:43:28</t>
+          <t>12:35:13</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1770,58 +1720,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>14753</v>
+        <v>28152</v>
       </c>
       <c r="L5" t="n">
-        <v>14753</v>
+        <v>28152</v>
       </c>
       <c r="M5" t="n">
-        <v>35782.71</v>
+        <v>30108.86</v>
       </c>
       <c r="N5" t="n">
-        <v>21469.63</v>
+        <v>18065.32</v>
       </c>
       <c r="O5" t="n">
-        <v>14313.08</v>
+        <v>12043.54</v>
       </c>
       <c r="P5" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R5" t="n">
-        <v>46.98</v>
+        <v>99.7</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6799999999999</v>
+        <v>301.98</v>
       </c>
       <c r="T5" t="n">
-        <v>40.47</v>
+        <v>25.37</v>
       </c>
       <c r="U5" t="n">
-        <v>457.01</v>
+        <v>181.19</v>
       </c>
       <c r="V5" t="n">
-        <v>304.67</v>
+        <v>120.79</v>
       </c>
       <c r="W5" t="n">
-        <v>17.48</v>
+        <v>2.17</v>
       </c>
       <c r="X5" t="n">
-        <v>21.67</v>
+        <v>23.67</v>
       </c>
       <c r="Y5" t="n">
-        <v>46.98</v>
+        <v>99.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.399</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-09-02 14:30:47</t>
+          <t>2026-09-02 15:56:28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1831,7 +1781,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.281</t>
+          <t>Mouse session - Score: 0.270</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1859,7 +1809,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14:30:47</t>
+          <t>15:56:28</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1868,58 +1818,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>11440</v>
+        <v>20219</v>
       </c>
       <c r="L6" t="n">
-        <v>11440</v>
+        <v>20219</v>
       </c>
       <c r="M6" t="n">
-        <v>10655.99</v>
+        <v>23676.91</v>
       </c>
       <c r="N6" t="n">
-        <v>6393.59</v>
+        <v>14206.14</v>
       </c>
       <c r="O6" t="n">
-        <v>4262.4</v>
+        <v>9470.76</v>
       </c>
       <c r="P6" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="R6" t="n">
-        <v>45.67</v>
+        <v>170.17</v>
       </c>
       <c r="S6" t="n">
-        <v>233.31</v>
+        <v>139.14</v>
       </c>
       <c r="T6" t="n">
-        <v>39.23</v>
+        <v>33.15</v>
       </c>
       <c r="U6" t="n">
-        <v>139.98</v>
+        <v>83.48</v>
       </c>
       <c r="V6" t="n">
-        <v>93.31999999999999</v>
+        <v>55.65</v>
       </c>
       <c r="W6" t="n">
-        <v>19.34</v>
+        <v>12.33</v>
       </c>
       <c r="X6" t="n">
-        <v>25.01</v>
+        <v>22.03</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.67</v>
+        <v>170.17</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.281</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-09-02 17:58:49</t>
+          <t>2026-09-02 13:32:56</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1929,7 +1879,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.413</t>
+          <t>Mouse session - Score: 0.405</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1957,7 +1907,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:58:49</t>
+          <t>13:32:56</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1966,58 +1916,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>5658</v>
+        <v>26287</v>
       </c>
       <c r="L7" t="n">
-        <v>5658</v>
+        <v>26287</v>
       </c>
       <c r="M7" t="n">
-        <v>34419.26</v>
+        <v>5328.65</v>
       </c>
       <c r="N7" t="n">
-        <v>20651.55</v>
+        <v>3197.19</v>
       </c>
       <c r="O7" t="n">
-        <v>13767.7</v>
+        <v>2131.46</v>
       </c>
       <c r="P7" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R7" t="n">
-        <v>163.7</v>
+        <v>42.34</v>
       </c>
       <c r="S7" t="n">
-        <v>210.26</v>
+        <v>125.85</v>
       </c>
       <c r="T7" t="n">
-        <v>21.73</v>
+        <v>34.77</v>
       </c>
       <c r="U7" t="n">
-        <v>126.16</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="V7" t="n">
-        <v>84.09999999999999</v>
+        <v>50.34</v>
       </c>
       <c r="W7" t="n">
-        <v>27.44</v>
+        <v>28.86</v>
       </c>
       <c r="X7" t="n">
-        <v>9.720000000000001</v>
+        <v>3.28</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.7</v>
+        <v>42.34</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.413</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-09-03 11:20:38</t>
+          <t>2026-09-03 16:55:28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2027,7 +1977,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.257</t>
+          <t>Mouse session - Score: 0.938</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2042,11 +1992,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2055,7 +2005,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11:20:38</t>
+          <t>16:55:28</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2064,58 +2014,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>16836</v>
+        <v>23316</v>
       </c>
       <c r="L8" t="n">
-        <v>16836</v>
+        <v>23316</v>
       </c>
       <c r="M8" t="n">
-        <v>35404.24</v>
+        <v>16953.65</v>
       </c>
       <c r="N8" t="n">
-        <v>21242.54</v>
+        <v>10172.19</v>
       </c>
       <c r="O8" t="n">
-        <v>14161.7</v>
+        <v>6781.46</v>
       </c>
       <c r="P8" t="n">
         <v>45</v>
       </c>
       <c r="Q8" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>67.92</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>521.26</v>
+        <v>193.29</v>
       </c>
       <c r="T8" t="n">
-        <v>10.41</v>
+        <v>23.94</v>
       </c>
       <c r="U8" t="n">
-        <v>312.76</v>
+        <v>115.98</v>
       </c>
       <c r="V8" t="n">
-        <v>208.51</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="W8" t="n">
-        <v>20.74</v>
+        <v>3.21</v>
       </c>
       <c r="X8" t="n">
-        <v>24.92</v>
+        <v>8.41</v>
       </c>
       <c r="Y8" t="n">
-        <v>67.92</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.257</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-09-03 11:31:12</t>
+          <t>2026-09-03 15:33:01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2125,7 +2075,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.439</t>
+          <t>Mouse session - Score: 0.349</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2153,7 +2103,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11:31:12</t>
+          <t>15:33:01</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2162,58 +2112,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>12455</v>
+        <v>22857</v>
       </c>
       <c r="L9" t="n">
-        <v>12455</v>
+        <v>22857</v>
       </c>
       <c r="M9" t="n">
-        <v>35357.58</v>
+        <v>33353.01</v>
       </c>
       <c r="N9" t="n">
-        <v>21214.55</v>
+        <v>20011.81</v>
       </c>
       <c r="O9" t="n">
-        <v>14143.03</v>
+        <v>13341.2</v>
       </c>
       <c r="P9" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R9" t="n">
-        <v>68.18000000000001</v>
+        <v>35.07</v>
       </c>
       <c r="S9" t="n">
-        <v>518.5599999999999</v>
+        <v>950.97</v>
       </c>
       <c r="T9" t="n">
-        <v>38.79</v>
+        <v>44.41</v>
       </c>
       <c r="U9" t="n">
-        <v>311.14</v>
+        <v>570.58</v>
       </c>
       <c r="V9" t="n">
-        <v>207.42</v>
+        <v>380.39</v>
       </c>
       <c r="W9" t="n">
-        <v>16.8</v>
+        <v>18.71</v>
       </c>
       <c r="X9" t="n">
-        <v>20.16</v>
+        <v>15.31</v>
       </c>
       <c r="Y9" t="n">
-        <v>68.18000000000001</v>
+        <v>35.07</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.439</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-09-03 09:48:31</t>
+          <t>2026-09-03 14:57:49</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2223,7 +2173,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.448</t>
+          <t>Mouse session - Score: 0.442</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2251,7 +2201,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09:48:31</t>
+          <t>14:57:49</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2260,58 +2210,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6875</v>
+        <v>5023</v>
       </c>
       <c r="L10" t="n">
-        <v>6875</v>
+        <v>5023</v>
       </c>
       <c r="M10" t="n">
-        <v>28515.16</v>
+        <v>19089.54</v>
       </c>
       <c r="N10" t="n">
-        <v>17109.1</v>
+        <v>11453.72</v>
       </c>
       <c r="O10" t="n">
-        <v>11406.07</v>
+        <v>7635.82</v>
       </c>
       <c r="P10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q10" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R10" t="n">
-        <v>167.79</v>
+        <v>117.02</v>
       </c>
       <c r="S10" t="n">
-        <v>169.95</v>
+        <v>163.12</v>
       </c>
       <c r="T10" t="n">
-        <v>12.67</v>
+        <v>45.13</v>
       </c>
       <c r="U10" t="n">
-        <v>101.97</v>
+        <v>97.87</v>
       </c>
       <c r="V10" t="n">
-        <v>67.98</v>
+        <v>65.25</v>
       </c>
       <c r="W10" t="n">
-        <v>23.19</v>
+        <v>5.04</v>
       </c>
       <c r="X10" t="n">
-        <v>27.1</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>167.79</v>
+        <v>117.02</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.448</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-09-04 17:55:47</t>
+          <t>2026-09-04 17:39:12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2321,7 +2271,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.287</t>
+          <t>Mouse session - Score: 0.441</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2349,7 +2299,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:55:47</t>
+          <t>17:39:12</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2358,58 +2308,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>20329</v>
+        <v>16121</v>
       </c>
       <c r="L11" t="n">
-        <v>20329</v>
+        <v>16121</v>
       </c>
       <c r="M11" t="n">
-        <v>9342.48</v>
+        <v>35118.93</v>
       </c>
       <c r="N11" t="n">
-        <v>5605.49</v>
+        <v>21071.36</v>
       </c>
       <c r="O11" t="n">
-        <v>3736.99</v>
+        <v>14047.57</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>143.11</v>
+        <v>72.95</v>
       </c>
       <c r="S11" t="n">
-        <v>65.28</v>
+        <v>481.43</v>
       </c>
       <c r="T11" t="n">
-        <v>14.21</v>
+        <v>47.26</v>
       </c>
       <c r="U11" t="n">
-        <v>39.17</v>
+        <v>288.86</v>
       </c>
       <c r="V11" t="n">
-        <v>26.11</v>
+        <v>192.57</v>
       </c>
       <c r="W11" t="n">
-        <v>9.51</v>
+        <v>19.54</v>
       </c>
       <c r="X11" t="n">
-        <v>15.42</v>
+        <v>15.03</v>
       </c>
       <c r="Y11" t="n">
-        <v>143.11</v>
+        <v>72.95</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.287</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-09-04 10:54:20</t>
+          <t>2026-09-04 13:19:05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2419,7 +2369,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.268</t>
+          <t>Mouse session - Score: 0.311</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2447,7 +2397,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10:54:20</t>
+          <t>13:19:05</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2456,58 +2406,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>13828</v>
+        <v>5588</v>
       </c>
       <c r="L12" t="n">
-        <v>13828</v>
+        <v>5588</v>
       </c>
       <c r="M12" t="n">
-        <v>34631.54</v>
+        <v>9453.530000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>20778.93</v>
+        <v>5672.12</v>
       </c>
       <c r="O12" t="n">
-        <v>13852.62</v>
+        <v>3781.41</v>
       </c>
       <c r="P12" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R12" t="n">
-        <v>152.65</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>226.87</v>
+        <v>111.13</v>
       </c>
       <c r="T12" t="n">
-        <v>19.16</v>
+        <v>15.1</v>
       </c>
       <c r="U12" t="n">
-        <v>136.12</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="V12" t="n">
-        <v>90.75</v>
+        <v>44.45</v>
       </c>
       <c r="W12" t="n">
-        <v>24.91</v>
+        <v>12.22</v>
       </c>
       <c r="X12" t="n">
-        <v>17.98</v>
+        <v>13.16</v>
       </c>
       <c r="Y12" t="n">
-        <v>152.65</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.268</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-09-04 12:04:06</t>
+          <t>2026-09-04 09:54:38</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2517,7 +2467,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.287</t>
+          <t>Mouse session - Score: 0.401</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2545,7 +2495,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12:04:06</t>
+          <t>09:54:38</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2554,58 +2504,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>19180</v>
+        <v>13521</v>
       </c>
       <c r="L13" t="n">
-        <v>19180</v>
+        <v>13521</v>
       </c>
       <c r="M13" t="n">
-        <v>10697.32</v>
+        <v>28413.53</v>
       </c>
       <c r="N13" t="n">
-        <v>6418.39</v>
+        <v>17048.12</v>
       </c>
       <c r="O13" t="n">
-        <v>4278.93</v>
+        <v>11365.41</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R13" t="n">
-        <v>177.09</v>
+        <v>145.68</v>
       </c>
       <c r="S13" t="n">
-        <v>60.41</v>
+        <v>195.04</v>
       </c>
       <c r="T13" t="n">
-        <v>19.89</v>
+        <v>14.84</v>
       </c>
       <c r="U13" t="n">
-        <v>36.24</v>
+        <v>117.02</v>
       </c>
       <c r="V13" t="n">
-        <v>24.16</v>
+        <v>78.02</v>
       </c>
       <c r="W13" t="n">
-        <v>27.85</v>
+        <v>19.4</v>
       </c>
       <c r="X13" t="n">
-        <v>12.66</v>
+        <v>10.52</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.09</v>
+        <v>145.68</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.287</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-09-06 12:01:01</t>
+          <t>2026-09-05 14:04:40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2615,7 +2565,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.379</t>
+          <t>Mouse session - Score: 0.284</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2625,7 +2575,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MOUSE_20260906_000</t>
+          <t>MOUSE_20260905_000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2638,12 +2588,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12:01:01</t>
+          <t>14:04:40</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2652,58 +2602,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>7201</v>
+        <v>18923</v>
       </c>
       <c r="L14" t="n">
-        <v>7201</v>
+        <v>18923</v>
       </c>
       <c r="M14" t="n">
-        <v>33254.54</v>
+        <v>34771.17</v>
       </c>
       <c r="N14" t="n">
-        <v>19952.73</v>
+        <v>20862.7</v>
       </c>
       <c r="O14" t="n">
-        <v>13301.82</v>
+        <v>13908.47</v>
       </c>
       <c r="P14" t="n">
         <v>21</v>
       </c>
       <c r="Q14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R14" t="n">
-        <v>33.47</v>
+        <v>54.03</v>
       </c>
       <c r="S14" t="n">
-        <v>993.63</v>
+        <v>643.49</v>
       </c>
       <c r="T14" t="n">
-        <v>6.3</v>
+        <v>16.64</v>
       </c>
       <c r="U14" t="n">
-        <v>596.1799999999999</v>
+        <v>386.1</v>
       </c>
       <c r="V14" t="n">
-        <v>397.45</v>
+        <v>257.4</v>
       </c>
       <c r="W14" t="n">
-        <v>5.13</v>
+        <v>14.2</v>
       </c>
       <c r="X14" t="n">
-        <v>24.85</v>
+        <v>24.34</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.47</v>
+        <v>54.03</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.379</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-09-06 15:03:24</t>
+          <t>2026-09-05 17:10:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2713,7 +2663,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.326</t>
+          <t>Mouse session - Score: 0.250</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2723,7 +2673,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MOUSE_20260906_001</t>
+          <t>MOUSE_20260905_001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2736,12 +2686,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15:03:24</t>
+          <t>17:10:06</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2750,58 +2700,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>29765</v>
+        <v>17827</v>
       </c>
       <c r="L15" t="n">
-        <v>29765</v>
+        <v>17827</v>
       </c>
       <c r="M15" t="n">
-        <v>17415.03</v>
+        <v>13196.21</v>
       </c>
       <c r="N15" t="n">
-        <v>10449.02</v>
+        <v>7917.73</v>
       </c>
       <c r="O15" t="n">
-        <v>6966.01</v>
+        <v>5278.49</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>49.63</v>
+        <v>91</v>
       </c>
       <c r="S15" t="n">
-        <v>350.91</v>
+        <v>145.01</v>
       </c>
       <c r="T15" t="n">
-        <v>23.83</v>
+        <v>38.52</v>
       </c>
       <c r="U15" t="n">
-        <v>210.55</v>
+        <v>87</v>
       </c>
       <c r="V15" t="n">
-        <v>140.37</v>
+        <v>58</v>
       </c>
       <c r="W15" t="n">
-        <v>21.21</v>
+        <v>19.8</v>
       </c>
       <c r="X15" t="n">
-        <v>29.75</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>49.63</v>
+        <v>91</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.326</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-09-06 15:51:18</t>
+          <t>2026-09-05 10:21:59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2811,7 +2761,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.369</t>
+          <t>Mouse session - Score: 0.254</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2821,7 +2771,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOUSE_20260906_002</t>
+          <t>MOUSE_20260905_002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2834,12 +2784,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15:51:18</t>
+          <t>10:21:59</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2848,58 +2798,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>5653</v>
+        <v>10996</v>
       </c>
       <c r="L16" t="n">
-        <v>5653</v>
+        <v>10996</v>
       </c>
       <c r="M16" t="n">
-        <v>39844.21</v>
+        <v>31389.92</v>
       </c>
       <c r="N16" t="n">
-        <v>23906.53</v>
+        <v>18833.95</v>
       </c>
       <c r="O16" t="n">
-        <v>15937.68</v>
+        <v>12555.97</v>
       </c>
       <c r="P16" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>114.32</v>
+        <v>134.56</v>
       </c>
       <c r="S16" t="n">
-        <v>348.52</v>
+        <v>233.27</v>
       </c>
       <c r="T16" t="n">
-        <v>8.01</v>
+        <v>46.17</v>
       </c>
       <c r="U16" t="n">
-        <v>209.11</v>
+        <v>139.96</v>
       </c>
       <c r="V16" t="n">
-        <v>139.41</v>
+        <v>93.31</v>
       </c>
       <c r="W16" t="n">
-        <v>19.2</v>
+        <v>24.42</v>
       </c>
       <c r="X16" t="n">
-        <v>24.67</v>
+        <v>2.74</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.32</v>
+        <v>134.56</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.369</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-09-07 12:02:06</t>
+          <t>2026-09-07 17:37:44</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2909,7 +2859,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.276</t>
+          <t>Mouse session - Score: 0.382</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2937,7 +2887,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12:02:06</t>
+          <t>17:37:44</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2946,58 +2896,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>9887</v>
+        <v>10653</v>
       </c>
       <c r="L17" t="n">
-        <v>9887</v>
+        <v>10653</v>
       </c>
       <c r="M17" t="n">
-        <v>19797.85</v>
+        <v>13987.61</v>
       </c>
       <c r="N17" t="n">
-        <v>11878.71</v>
+        <v>8392.57</v>
       </c>
       <c r="O17" t="n">
-        <v>7919.14</v>
+        <v>5595.04</v>
       </c>
       <c r="P17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R17" t="n">
-        <v>47.85</v>
+        <v>133.41</v>
       </c>
       <c r="S17" t="n">
-        <v>413.73</v>
+        <v>104.85</v>
       </c>
       <c r="T17" t="n">
-        <v>33.58</v>
+        <v>32.19</v>
       </c>
       <c r="U17" t="n">
-        <v>248.24</v>
+        <v>62.91</v>
       </c>
       <c r="V17" t="n">
-        <v>165.49</v>
+        <v>41.94</v>
       </c>
       <c r="W17" t="n">
-        <v>22.73</v>
+        <v>27.71</v>
       </c>
       <c r="X17" t="n">
-        <v>26.64</v>
+        <v>9.92</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.85</v>
+        <v>133.41</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.276</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-09-07 10:08:17</t>
+          <t>2026-09-07 10:27:50</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3007,7 +2957,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.291</t>
+          <t>Mouse session - Score: 0.370</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3035,7 +2985,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10:08:17</t>
+          <t>10:27:50</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3044,58 +2994,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>7466</v>
+        <v>27520</v>
       </c>
       <c r="L18" t="n">
-        <v>7466</v>
+        <v>27520</v>
       </c>
       <c r="M18" t="n">
-        <v>30055.2</v>
+        <v>26281.53</v>
       </c>
       <c r="N18" t="n">
-        <v>18033.12</v>
+        <v>15768.92</v>
       </c>
       <c r="O18" t="n">
-        <v>12022.08</v>
+        <v>10512.61</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R18" t="n">
-        <v>127.45</v>
+        <v>35.07</v>
       </c>
       <c r="S18" t="n">
-        <v>235.82</v>
+        <v>749.4400000000001</v>
       </c>
       <c r="T18" t="n">
-        <v>47.12</v>
+        <v>21.39</v>
       </c>
       <c r="U18" t="n">
-        <v>141.49</v>
+        <v>449.66</v>
       </c>
       <c r="V18" t="n">
-        <v>94.33</v>
+        <v>299.78</v>
       </c>
       <c r="W18" t="n">
-        <v>12.57</v>
+        <v>8.43</v>
       </c>
       <c r="X18" t="n">
-        <v>24.66</v>
+        <v>24.61</v>
       </c>
       <c r="Y18" t="n">
-        <v>127.45</v>
+        <v>35.07</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.291</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-09-07 09:34:29</t>
+          <t>2026-09-07 14:44:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3105,7 +3055,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.313</t>
+          <t>Mouse session - Score: 0.372</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3133,7 +3083,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>09:34:29</t>
+          <t>14:44:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3142,58 +3092,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>19311</v>
+        <v>21718</v>
       </c>
       <c r="L19" t="n">
-        <v>19311</v>
+        <v>21718</v>
       </c>
       <c r="M19" t="n">
-        <v>35730.32</v>
+        <v>22869.13</v>
       </c>
       <c r="N19" t="n">
-        <v>21438.19</v>
+        <v>13721.48</v>
       </c>
       <c r="O19" t="n">
-        <v>14292.13</v>
+        <v>9147.65</v>
       </c>
       <c r="P19" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="Q19" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>126.96</v>
+        <v>77.78</v>
       </c>
       <c r="S19" t="n">
-        <v>281.44</v>
+        <v>294.03</v>
       </c>
       <c r="T19" t="n">
-        <v>5.57</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="U19" t="n">
-        <v>168.86</v>
+        <v>176.42</v>
       </c>
       <c r="V19" t="n">
-        <v>112.58</v>
+        <v>117.61</v>
       </c>
       <c r="W19" t="n">
-        <v>26.42</v>
+        <v>20.3</v>
       </c>
       <c r="X19" t="n">
-        <v>6.14</v>
+        <v>29.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.96</v>
+        <v>77.78</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.313</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-09-08 16:58:25</t>
+          <t>2026-09-08 14:05:37</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3203,7 +3153,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.355</t>
+          <t>Mouse session - Score: 0.304</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3231,7 +3181,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16:58:25</t>
+          <t>14:05:37</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3240,58 +3190,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>5762</v>
+        <v>26828</v>
       </c>
       <c r="L20" t="n">
-        <v>5762</v>
+        <v>26828</v>
       </c>
       <c r="M20" t="n">
-        <v>39227.39</v>
+        <v>9558.08</v>
       </c>
       <c r="N20" t="n">
-        <v>23536.44</v>
+        <v>5734.85</v>
       </c>
       <c r="O20" t="n">
-        <v>15690.96</v>
+        <v>3823.23</v>
       </c>
       <c r="P20" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R20" t="n">
-        <v>142.39</v>
+        <v>162.38</v>
       </c>
       <c r="S20" t="n">
-        <v>275.49</v>
+        <v>58.86</v>
       </c>
       <c r="T20" t="n">
-        <v>24.25</v>
+        <v>36.25</v>
       </c>
       <c r="U20" t="n">
-        <v>165.29</v>
+        <v>35.32</v>
       </c>
       <c r="V20" t="n">
-        <v>110.2</v>
+        <v>23.54</v>
       </c>
       <c r="W20" t="n">
-        <v>24.86</v>
+        <v>2.44</v>
       </c>
       <c r="X20" t="n">
-        <v>21.34</v>
+        <v>7.43</v>
       </c>
       <c r="Y20" t="n">
-        <v>142.39</v>
+        <v>162.38</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.355</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-09-08 10:19:39</t>
+          <t>2026-09-08 13:58:55</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3301,7 +3251,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.419</t>
+          <t>Mouse session - Score: 0.276</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3329,7 +3279,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10:19:39</t>
+          <t>13:58:55</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3338,58 +3288,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>7260</v>
+        <v>28071</v>
       </c>
       <c r="L21" t="n">
-        <v>7260</v>
+        <v>28071</v>
       </c>
       <c r="M21" t="n">
-        <v>11152.61</v>
+        <v>9495.67</v>
       </c>
       <c r="N21" t="n">
-        <v>6691.56</v>
+        <v>5697.4</v>
       </c>
       <c r="O21" t="n">
-        <v>4461.04</v>
+        <v>3798.27</v>
       </c>
       <c r="P21" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R21" t="n">
-        <v>81.33</v>
+        <v>124.11</v>
       </c>
       <c r="S21" t="n">
-        <v>137.13</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="T21" t="n">
-        <v>15.45</v>
+        <v>16.56</v>
       </c>
       <c r="U21" t="n">
-        <v>82.28</v>
+        <v>45.9</v>
       </c>
       <c r="V21" t="n">
-        <v>54.85</v>
+        <v>30.6</v>
       </c>
       <c r="W21" t="n">
-        <v>9.48</v>
+        <v>22.15</v>
       </c>
       <c r="X21" t="n">
-        <v>26.33</v>
+        <v>15.18</v>
       </c>
       <c r="Y21" t="n">
-        <v>81.33</v>
+        <v>124.11</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.419</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-09-08 15:41:48</t>
+          <t>2026-09-08 09:17:42</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3399,7 +3349,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.387</t>
+          <t>Mouse session - Score: 0.303</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3427,7 +3377,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15:41:48</t>
+          <t>09:17:42</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3436,58 +3386,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>7887</v>
+        <v>14557</v>
       </c>
       <c r="L22" t="n">
-        <v>7887</v>
+        <v>14557</v>
       </c>
       <c r="M22" t="n">
-        <v>38886.78</v>
+        <v>35503.35</v>
       </c>
       <c r="N22" t="n">
-        <v>23332.07</v>
+        <v>21302.01</v>
       </c>
       <c r="O22" t="n">
-        <v>15554.71</v>
+        <v>14201.34</v>
       </c>
       <c r="P22" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="R22" t="n">
-        <v>173.11</v>
+        <v>134.1</v>
       </c>
       <c r="S22" t="n">
-        <v>224.64</v>
+        <v>264.75</v>
       </c>
       <c r="T22" t="n">
-        <v>20.16</v>
+        <v>34.77</v>
       </c>
       <c r="U22" t="n">
-        <v>134.78</v>
+        <v>158.85</v>
       </c>
       <c r="V22" t="n">
-        <v>89.84999999999999</v>
+        <v>105.9</v>
       </c>
       <c r="W22" t="n">
-        <v>25.06</v>
+        <v>26.1</v>
       </c>
       <c r="X22" t="n">
-        <v>20.88</v>
+        <v>25.86</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.11</v>
+        <v>134.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.387</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-09-09 13:07:17</t>
+          <t>2026-09-09 10:05:54</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3497,7 +3447,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.314</t>
+          <t>Mouse session - Score: 0.446</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3525,7 +3475,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13:07:17</t>
+          <t>10:05:54</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3534,58 +3484,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>17157</v>
+        <v>14796</v>
       </c>
       <c r="L23" t="n">
-        <v>17157</v>
+        <v>14796</v>
       </c>
       <c r="M23" t="n">
-        <v>17523.31</v>
+        <v>34949.93</v>
       </c>
       <c r="N23" t="n">
-        <v>10513.99</v>
+        <v>20969.96</v>
       </c>
       <c r="O23" t="n">
-        <v>7009.32</v>
+        <v>13979.97</v>
       </c>
       <c r="P23" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R23" t="n">
-        <v>145.98</v>
+        <v>35.96</v>
       </c>
       <c r="S23" t="n">
-        <v>120.04</v>
+        <v>971.83</v>
       </c>
       <c r="T23" t="n">
-        <v>26.68</v>
+        <v>13.47</v>
       </c>
       <c r="U23" t="n">
-        <v>72.02</v>
+        <v>583.1</v>
       </c>
       <c r="V23" t="n">
-        <v>48.02</v>
+        <v>388.73</v>
       </c>
       <c r="W23" t="n">
-        <v>11.24</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="X23" t="n">
-        <v>3.23</v>
+        <v>27.84</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.98</v>
+        <v>35.96</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.314</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-09-09 10:54:54</t>
+          <t>2026-09-09 12:08:58</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3595,7 +3545,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.447</t>
+          <t>Mouse session - Score: 0.374</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3623,7 +3573,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10:54:54</t>
+          <t>12:08:58</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3632,58 +3582,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>14656</v>
+        <v>7872</v>
       </c>
       <c r="L24" t="n">
-        <v>14656</v>
+        <v>7872</v>
       </c>
       <c r="M24" t="n">
-        <v>38839.73</v>
+        <v>19748.1</v>
       </c>
       <c r="N24" t="n">
-        <v>23303.84</v>
+        <v>11848.86</v>
       </c>
       <c r="O24" t="n">
-        <v>15535.89</v>
+        <v>7899.24</v>
       </c>
       <c r="P24" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Q24" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R24" t="n">
-        <v>144.58</v>
+        <v>116.76</v>
       </c>
       <c r="S24" t="n">
-        <v>268.65</v>
+        <v>169.13</v>
       </c>
       <c r="T24" t="n">
-        <v>41.7</v>
+        <v>43.39</v>
       </c>
       <c r="U24" t="n">
-        <v>161.19</v>
+        <v>101.48</v>
       </c>
       <c r="V24" t="n">
-        <v>107.46</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="W24" t="n">
-        <v>20.04</v>
+        <v>7.53</v>
       </c>
       <c r="X24" t="n">
-        <v>18.74</v>
+        <v>29.62</v>
       </c>
       <c r="Y24" t="n">
-        <v>144.58</v>
+        <v>116.76</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.447</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-09-09 14:31:32</t>
+          <t>2026-09-09 12:52:19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3693,7 +3643,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.354</t>
+          <t>Mouse session - Score: 0.295</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3721,7 +3671,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>14:31:32</t>
+          <t>12:52:19</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3730,58 +3680,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>11783</v>
+        <v>24531</v>
       </c>
       <c r="L25" t="n">
-        <v>11783</v>
+        <v>24531</v>
       </c>
       <c r="M25" t="n">
-        <v>36903.89</v>
+        <v>35252.44</v>
       </c>
       <c r="N25" t="n">
-        <v>22142.34</v>
+        <v>21151.46</v>
       </c>
       <c r="O25" t="n">
-        <v>14761.56</v>
+        <v>14100.97</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R25" t="n">
-        <v>155.19</v>
+        <v>145.19</v>
       </c>
       <c r="S25" t="n">
-        <v>237.8</v>
+        <v>242.81</v>
       </c>
       <c r="T25" t="n">
-        <v>13.41</v>
+        <v>14.67</v>
       </c>
       <c r="U25" t="n">
-        <v>142.68</v>
+        <v>145.68</v>
       </c>
       <c r="V25" t="n">
-        <v>95.12</v>
+        <v>97.12</v>
       </c>
       <c r="W25" t="n">
-        <v>17.39</v>
+        <v>25.31</v>
       </c>
       <c r="X25" t="n">
-        <v>2.17</v>
+        <v>29.81</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.19</v>
+        <v>145.19</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.354</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-09-10 11:49:28</t>
+          <t>2026-09-10 17:52:23</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3791,7 +3741,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.400</t>
+          <t>Mouse session - Score: 0.315</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3819,7 +3769,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11:49:28</t>
+          <t>17:52:23</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3828,58 +3778,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>28732</v>
+        <v>29029</v>
       </c>
       <c r="L26" t="n">
-        <v>28732</v>
+        <v>29029</v>
       </c>
       <c r="M26" t="n">
-        <v>10276.61</v>
+        <v>6812.03</v>
       </c>
       <c r="N26" t="n">
-        <v>6165.97</v>
+        <v>4087.22</v>
       </c>
       <c r="O26" t="n">
-        <v>4110.64</v>
+        <v>2724.81</v>
       </c>
       <c r="P26" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R26" t="n">
-        <v>155.69</v>
+        <v>108.48</v>
       </c>
       <c r="S26" t="n">
-        <v>66.01000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="T26" t="n">
-        <v>47.92</v>
+        <v>40.97</v>
       </c>
       <c r="U26" t="n">
-        <v>39.6</v>
+        <v>37.68</v>
       </c>
       <c r="V26" t="n">
-        <v>26.4</v>
+        <v>25.12</v>
       </c>
       <c r="W26" t="n">
-        <v>27.32</v>
+        <v>22.6</v>
       </c>
       <c r="X26" t="n">
-        <v>6</v>
+        <v>3.46</v>
       </c>
       <c r="Y26" t="n">
-        <v>155.69</v>
+        <v>108.48</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.4</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-09-10 12:28:44</t>
+          <t>2026-09-10 09:50:16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3889,7 +3839,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.325</t>
+          <t>Mouse session - Score: 0.321</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3917,7 +3867,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12:28:44</t>
+          <t>09:50:16</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3926,58 +3876,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>24781</v>
+        <v>14458</v>
       </c>
       <c r="L27" t="n">
-        <v>24781</v>
+        <v>14458</v>
       </c>
       <c r="M27" t="n">
-        <v>20924.09</v>
+        <v>26727.32</v>
       </c>
       <c r="N27" t="n">
-        <v>12554.45</v>
+        <v>16036.39</v>
       </c>
       <c r="O27" t="n">
-        <v>8369.639999999999</v>
+        <v>10690.93</v>
       </c>
       <c r="P27" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q27" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="R27" t="n">
-        <v>53.37</v>
+        <v>156.96</v>
       </c>
       <c r="S27" t="n">
-        <v>392.03</v>
+        <v>170.28</v>
       </c>
       <c r="T27" t="n">
-        <v>30.34</v>
+        <v>25.97</v>
       </c>
       <c r="U27" t="n">
-        <v>235.22</v>
+        <v>102.17</v>
       </c>
       <c r="V27" t="n">
-        <v>156.81</v>
+        <v>68.11</v>
       </c>
       <c r="W27" t="n">
-        <v>22.59</v>
+        <v>20.58</v>
       </c>
       <c r="X27" t="n">
-        <v>4.12</v>
+        <v>20.36</v>
       </c>
       <c r="Y27" t="n">
-        <v>53.37</v>
+        <v>156.96</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.325</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-09-10 12:27:32</t>
+          <t>2026-09-10 10:16:04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3987,7 +3937,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.346</t>
+          <t>Mouse session - Score: 0.389</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4015,7 +3965,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12:27:32</t>
+          <t>10:16:04</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4024,58 +3974,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5874</v>
+        <v>14614</v>
       </c>
       <c r="L28" t="n">
-        <v>5874</v>
+        <v>14614</v>
       </c>
       <c r="M28" t="n">
-        <v>9493.41</v>
+        <v>18338.93</v>
       </c>
       <c r="N28" t="n">
-        <v>5696.05</v>
+        <v>11003.36</v>
       </c>
       <c r="O28" t="n">
-        <v>3797.37</v>
+        <v>7335.57</v>
       </c>
       <c r="P28" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R28" t="n">
-        <v>58.83</v>
+        <v>59.54</v>
       </c>
       <c r="S28" t="n">
-        <v>161.37</v>
+        <v>308.01</v>
       </c>
       <c r="T28" t="n">
-        <v>22.47</v>
+        <v>12.28</v>
       </c>
       <c r="U28" t="n">
-        <v>96.81999999999999</v>
+        <v>184.81</v>
       </c>
       <c r="V28" t="n">
-        <v>64.55</v>
+        <v>123.21</v>
       </c>
       <c r="W28" t="n">
-        <v>29.41</v>
+        <v>21.39</v>
       </c>
       <c r="X28" t="n">
-        <v>29.84</v>
+        <v>10.95</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.83</v>
+        <v>59.54</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.346</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-09-11 13:32:41</t>
+          <t>2026-09-11 13:42:06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4085,7 +4035,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.290</t>
+          <t>Mouse session - Score: 0.350</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4113,7 +4063,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13:32:41</t>
+          <t>13:42:06</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4122,58 +4072,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>29764</v>
+        <v>6238</v>
       </c>
       <c r="L29" t="n">
-        <v>29764</v>
+        <v>6238</v>
       </c>
       <c r="M29" t="n">
-        <v>14795.3</v>
+        <v>34811.15</v>
       </c>
       <c r="N29" t="n">
-        <v>8877.18</v>
+        <v>20886.69</v>
       </c>
       <c r="O29" t="n">
-        <v>5918.12</v>
+        <v>13924.46</v>
       </c>
       <c r="P29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R29" t="n">
-        <v>104.27</v>
+        <v>132.91</v>
       </c>
       <c r="S29" t="n">
-        <v>141.9</v>
+        <v>261.92</v>
       </c>
       <c r="T29" t="n">
-        <v>34.49</v>
+        <v>30.06</v>
       </c>
       <c r="U29" t="n">
-        <v>85.14</v>
+        <v>157.15</v>
       </c>
       <c r="V29" t="n">
-        <v>56.76</v>
+        <v>104.77</v>
       </c>
       <c r="W29" t="n">
-        <v>9.050000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="X29" t="n">
-        <v>29.27</v>
+        <v>7.05</v>
       </c>
       <c r="Y29" t="n">
-        <v>104.27</v>
+        <v>132.91</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-09-11 12:18:18</t>
+          <t>2026-09-11 16:35:54</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4183,7 +4133,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.382</t>
+          <t>Mouse session - Score: 0.332</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4211,7 +4161,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12:18:18</t>
+          <t>16:35:54</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4220,58 +4170,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>15757</v>
+        <v>21170</v>
       </c>
       <c r="L30" t="n">
-        <v>15757</v>
+        <v>21170</v>
       </c>
       <c r="M30" t="n">
-        <v>30764.48</v>
+        <v>16525.67</v>
       </c>
       <c r="N30" t="n">
-        <v>18458.69</v>
+        <v>9915.4</v>
       </c>
       <c r="O30" t="n">
-        <v>12305.79</v>
+        <v>6610.27</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="R30" t="n">
-        <v>173.77</v>
+        <v>149.36</v>
       </c>
       <c r="S30" t="n">
-        <v>177.04</v>
+        <v>110.64</v>
       </c>
       <c r="T30" t="n">
-        <v>23.2</v>
+        <v>21.6</v>
       </c>
       <c r="U30" t="n">
-        <v>106.22</v>
+        <v>66.38</v>
       </c>
       <c r="V30" t="n">
-        <v>70.81999999999999</v>
+        <v>44.26</v>
       </c>
       <c r="W30" t="n">
-        <v>24.87</v>
+        <v>10.73</v>
       </c>
       <c r="X30" t="n">
-        <v>9.68</v>
+        <v>14.22</v>
       </c>
       <c r="Y30" t="n">
-        <v>173.77</v>
+        <v>149.36</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.382</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-09-11 11:26:41</t>
+          <t>2026-09-11 09:45:07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4281,7 +4231,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.356</t>
+          <t>Mouse session - Score: 0.294</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4309,7 +4259,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11:26:41</t>
+          <t>09:45:07</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4318,58 +4268,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>10168</v>
+        <v>10264</v>
       </c>
       <c r="L31" t="n">
-        <v>10168</v>
+        <v>10264</v>
       </c>
       <c r="M31" t="n">
-        <v>29367.41</v>
+        <v>13230.5</v>
       </c>
       <c r="N31" t="n">
-        <v>17620.44</v>
+        <v>7938.3</v>
       </c>
       <c r="O31" t="n">
-        <v>11746.96</v>
+        <v>5292.2</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>59.6</v>
+        <v>51.76</v>
       </c>
       <c r="S31" t="n">
-        <v>492.74</v>
+        <v>255.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42.85</v>
+        <v>39.66</v>
       </c>
       <c r="U31" t="n">
-        <v>295.65</v>
+        <v>153.36</v>
       </c>
       <c r="V31" t="n">
-        <v>197.1</v>
+        <v>102.24</v>
       </c>
       <c r="W31" t="n">
-        <v>4.58</v>
+        <v>27.56</v>
       </c>
       <c r="X31" t="n">
-        <v>14.65</v>
+        <v>2.03</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.6</v>
+        <v>51.76</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.356</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-09-12 12:51:51</t>
+          <t>2026-09-12 15:59:40</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4379,7 +4329,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.301</t>
+          <t>Mouse session - Score: 0.803</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4394,11 +4344,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4407,7 +4357,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12:51:51</t>
+          <t>15:59:40</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4416,58 +4366,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>20731</v>
+        <v>12873</v>
       </c>
       <c r="L32" t="n">
-        <v>20731</v>
+        <v>12873</v>
       </c>
       <c r="M32" t="n">
-        <v>39004.66</v>
+        <v>16048.54</v>
       </c>
       <c r="N32" t="n">
-        <v>23402.8</v>
+        <v>9629.129999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>15601.86</v>
+        <v>6419.42</v>
       </c>
       <c r="P32" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q32" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="R32" t="n">
-        <v>179.9</v>
+        <v>53.77</v>
       </c>
       <c r="S32" t="n">
-        <v>216.81</v>
+        <v>298.45</v>
       </c>
       <c r="T32" t="n">
-        <v>18.57</v>
+        <v>41.12</v>
       </c>
       <c r="U32" t="n">
-        <v>130.09</v>
+        <v>179.07</v>
       </c>
       <c r="V32" t="n">
-        <v>86.72</v>
+        <v>119.38</v>
       </c>
       <c r="W32" t="n">
-        <v>10.31</v>
+        <v>7.2</v>
       </c>
       <c r="X32" t="n">
-        <v>5.42</v>
+        <v>21.31</v>
       </c>
       <c r="Y32" t="n">
-        <v>179.9</v>
+        <v>53.77</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.301</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-09-12 12:09:03</t>
+          <t>2026-09-12 09:37:52</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4477,7 +4427,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.372</t>
+          <t>Mouse session - Score: 0.911</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4492,11 +4442,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -4505,7 +4455,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12:09:03</t>
+          <t>09:37:52</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4514,58 +4464,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>26895</v>
+        <v>15708</v>
       </c>
       <c r="L33" t="n">
-        <v>26895</v>
+        <v>15708</v>
       </c>
       <c r="M33" t="n">
-        <v>13012.03</v>
+        <v>28668.22</v>
       </c>
       <c r="N33" t="n">
-        <v>7807.22</v>
+        <v>17200.93</v>
       </c>
       <c r="O33" t="n">
-        <v>5204.81</v>
+        <v>11467.29</v>
       </c>
       <c r="P33" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="Q33" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R33" t="n">
-        <v>127.3</v>
+        <v>48.96</v>
       </c>
       <c r="S33" t="n">
-        <v>102.22</v>
+        <v>585.5700000000001</v>
       </c>
       <c r="T33" t="n">
-        <v>17.15</v>
+        <v>40.33</v>
       </c>
       <c r="U33" t="n">
-        <v>61.33</v>
+        <v>351.34</v>
       </c>
       <c r="V33" t="n">
-        <v>40.89</v>
+        <v>234.23</v>
       </c>
       <c r="W33" t="n">
-        <v>11.67</v>
+        <v>28</v>
       </c>
       <c r="X33" t="n">
-        <v>25.53</v>
+        <v>10.72</v>
       </c>
       <c r="Y33" t="n">
-        <v>127.3</v>
+        <v>48.96</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.372</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-09-12 11:37:37</t>
+          <t>2026-09-12 14:37:58</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4575,7 +4525,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.390</t>
+          <t>Mouse session - Score: 0.282</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4603,7 +4553,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11:37:37</t>
+          <t>14:37:58</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4612,58 +4562,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>15519</v>
+        <v>16741</v>
       </c>
       <c r="L34" t="n">
-        <v>15519</v>
+        <v>16741</v>
       </c>
       <c r="M34" t="n">
-        <v>25301.33</v>
+        <v>23274.99</v>
       </c>
       <c r="N34" t="n">
-        <v>15180.8</v>
+        <v>13965</v>
       </c>
       <c r="O34" t="n">
-        <v>10120.53</v>
+        <v>9310</v>
       </c>
       <c r="P34" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q34" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="R34" t="n">
-        <v>121.41</v>
+        <v>155.52</v>
       </c>
       <c r="S34" t="n">
-        <v>208.4</v>
+        <v>149.66</v>
       </c>
       <c r="T34" t="n">
-        <v>34.57</v>
+        <v>35.07</v>
       </c>
       <c r="U34" t="n">
-        <v>125.04</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="V34" t="n">
-        <v>83.36</v>
+        <v>59.86</v>
       </c>
       <c r="W34" t="n">
-        <v>22.27</v>
+        <v>4.06</v>
       </c>
       <c r="X34" t="n">
-        <v>29.79</v>
+        <v>22.66</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.41</v>
+        <v>155.52</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.39</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-09-14 10:03:32</t>
+          <t>2026-09-14 11:23:55</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4673,7 +4623,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.345</t>
+          <t>Mouse session - Score: 0.359</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4701,7 +4651,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10:03:32</t>
+          <t>11:23:55</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4710,58 +4660,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>27394</v>
+        <v>19858</v>
       </c>
       <c r="L35" t="n">
-        <v>27394</v>
+        <v>19858</v>
       </c>
       <c r="M35" t="n">
-        <v>20745.94</v>
+        <v>11828.05</v>
       </c>
       <c r="N35" t="n">
-        <v>12447.56</v>
+        <v>7096.83</v>
       </c>
       <c r="O35" t="n">
-        <v>8298.379999999999</v>
+        <v>4731.22</v>
       </c>
       <c r="P35" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>60.31</v>
+        <v>119.53</v>
       </c>
       <c r="S35" t="n">
-        <v>343.98</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="T35" t="n">
-        <v>40.43</v>
+        <v>38.18</v>
       </c>
       <c r="U35" t="n">
-        <v>206.39</v>
+        <v>59.37</v>
       </c>
       <c r="V35" t="n">
-        <v>137.59</v>
+        <v>39.58</v>
       </c>
       <c r="W35" t="n">
-        <v>24.3</v>
+        <v>20.62</v>
       </c>
       <c r="X35" t="n">
-        <v>5.39</v>
+        <v>26.85</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.31</v>
+        <v>119.53</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.345</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-09-14 15:41:45</t>
+          <t>2026-09-14 17:32:49</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4771,7 +4721,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.308</t>
+          <t>Mouse session - Score: 0.304</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4799,7 +4749,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>15:41:45</t>
+          <t>17:32:49</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4808,58 +4758,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>28130</v>
+        <v>16789</v>
       </c>
       <c r="L36" t="n">
-        <v>28130</v>
+        <v>16789</v>
       </c>
       <c r="M36" t="n">
-        <v>26578.03</v>
+        <v>10950.54</v>
       </c>
       <c r="N36" t="n">
-        <v>15946.82</v>
+        <v>6570.32</v>
       </c>
       <c r="O36" t="n">
-        <v>10631.21</v>
+        <v>4380.21</v>
       </c>
       <c r="P36" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q36" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R36" t="n">
-        <v>133.23</v>
+        <v>142.66</v>
       </c>
       <c r="S36" t="n">
-        <v>199.49</v>
+        <v>76.76000000000001</v>
       </c>
       <c r="T36" t="n">
-        <v>27.26</v>
+        <v>12.44</v>
       </c>
       <c r="U36" t="n">
-        <v>119.69</v>
+        <v>46.06</v>
       </c>
       <c r="V36" t="n">
-        <v>79.8</v>
+        <v>30.7</v>
       </c>
       <c r="W36" t="n">
-        <v>2.06</v>
+        <v>11.47</v>
       </c>
       <c r="X36" t="n">
-        <v>24.5</v>
+        <v>18.65</v>
       </c>
       <c r="Y36" t="n">
-        <v>133.23</v>
+        <v>142.66</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.308</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-09-14 13:33:18</t>
+          <t>2026-09-14 10:24:45</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4869,7 +4819,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.317</t>
+          <t>Mouse session - Score: 0.295</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4897,7 +4847,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13:33:18</t>
+          <t>10:24:45</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4906,58 +4856,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>29195</v>
+        <v>26531</v>
       </c>
       <c r="L37" t="n">
-        <v>29195</v>
+        <v>26531</v>
       </c>
       <c r="M37" t="n">
-        <v>31191.09</v>
+        <v>21482.73</v>
       </c>
       <c r="N37" t="n">
-        <v>18714.65</v>
+        <v>12889.64</v>
       </c>
       <c r="O37" t="n">
-        <v>12476.44</v>
+        <v>8593.09</v>
       </c>
       <c r="P37" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R37" t="n">
-        <v>113.92</v>
+        <v>159.81</v>
       </c>
       <c r="S37" t="n">
-        <v>273.81</v>
+        <v>134.42</v>
       </c>
       <c r="T37" t="n">
-        <v>43.72</v>
+        <v>17.9</v>
       </c>
       <c r="U37" t="n">
-        <v>164.28</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="V37" t="n">
-        <v>109.52</v>
+        <v>53.77</v>
       </c>
       <c r="W37" t="n">
-        <v>13.33</v>
+        <v>6.53</v>
       </c>
       <c r="X37" t="n">
-        <v>17.38</v>
+        <v>10.39</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.92</v>
+        <v>159.81</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.317</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-09-15 16:09:54</t>
+          <t>2026-09-15 16:29:50</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4967,7 +4917,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.391</t>
+          <t>Mouse session - Score: 0.352</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4995,7 +4945,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>16:09:54</t>
+          <t>16:29:50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5004,58 +4954,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>13939</v>
+        <v>11506</v>
       </c>
       <c r="L38" t="n">
-        <v>13939</v>
+        <v>11506</v>
       </c>
       <c r="M38" t="n">
-        <v>38618.22</v>
+        <v>18259.32</v>
       </c>
       <c r="N38" t="n">
-        <v>23170.93</v>
+        <v>10955.59</v>
       </c>
       <c r="O38" t="n">
-        <v>15447.29</v>
+        <v>7303.73</v>
       </c>
       <c r="P38" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Q38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R38" t="n">
-        <v>152.86</v>
+        <v>60.92</v>
       </c>
       <c r="S38" t="n">
-        <v>252.65</v>
+        <v>299.73</v>
       </c>
       <c r="T38" t="n">
-        <v>45.75</v>
+        <v>27.83</v>
       </c>
       <c r="U38" t="n">
-        <v>151.59</v>
+        <v>179.84</v>
       </c>
       <c r="V38" t="n">
-        <v>101.06</v>
+        <v>119.89</v>
       </c>
       <c r="W38" t="n">
-        <v>15.14</v>
+        <v>20.18</v>
       </c>
       <c r="X38" t="n">
-        <v>8.210000000000001</v>
+        <v>10.23</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.86</v>
+        <v>60.92</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.391</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-09-15 09:24:50</t>
+          <t>2026-09-15 12:58:17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5065,7 +5015,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.265</t>
+          <t>Mouse session - Score: 0.380</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5093,7 +5043,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>09:24:50</t>
+          <t>12:58:17</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5102,58 +5052,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>8234</v>
+        <v>28717</v>
       </c>
       <c r="L39" t="n">
-        <v>8234</v>
+        <v>28717</v>
       </c>
       <c r="M39" t="n">
-        <v>12792</v>
+        <v>38449.77</v>
       </c>
       <c r="N39" t="n">
-        <v>7675.2</v>
+        <v>23069.86</v>
       </c>
       <c r="O39" t="n">
-        <v>5116.8</v>
+        <v>15379.91</v>
       </c>
       <c r="P39" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="Q39" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="R39" t="n">
-        <v>122.6</v>
+        <v>97.58</v>
       </c>
       <c r="S39" t="n">
-        <v>104.34</v>
+        <v>394.01</v>
       </c>
       <c r="T39" t="n">
-        <v>30.03</v>
+        <v>13.75</v>
       </c>
       <c r="U39" t="n">
-        <v>62.61</v>
+        <v>236.41</v>
       </c>
       <c r="V39" t="n">
-        <v>41.74</v>
+        <v>157.61</v>
       </c>
       <c r="W39" t="n">
-        <v>8.02</v>
+        <v>4.77</v>
       </c>
       <c r="X39" t="n">
-        <v>16.76</v>
+        <v>15.11</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.6</v>
+        <v>97.58</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.265</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-09-15 15:06:25</t>
+          <t>2026-09-15 10:22:58</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5163,7 +5113,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.271</t>
+          <t>Mouse session - Score: 0.323</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5191,7 +5141,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15:06:25</t>
+          <t>10:22:58</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5200,58 +5150,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>15079</v>
+        <v>10604</v>
       </c>
       <c r="L40" t="n">
-        <v>15079</v>
+        <v>10604</v>
       </c>
       <c r="M40" t="n">
-        <v>15015.95</v>
+        <v>28109.09</v>
       </c>
       <c r="N40" t="n">
-        <v>9009.57</v>
+        <v>16865.45</v>
       </c>
       <c r="O40" t="n">
-        <v>6006.38</v>
+        <v>11243.64</v>
       </c>
       <c r="P40" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q40" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2</v>
+        <v>37.99</v>
       </c>
       <c r="S40" t="n">
-        <v>101.32</v>
+        <v>739.8200000000001</v>
       </c>
       <c r="T40" t="n">
-        <v>33.22</v>
+        <v>5.43</v>
       </c>
       <c r="U40" t="n">
-        <v>60.79</v>
+        <v>443.89</v>
       </c>
       <c r="V40" t="n">
-        <v>40.53</v>
+        <v>295.93</v>
       </c>
       <c r="W40" t="n">
-        <v>20.67</v>
+        <v>9.26</v>
       </c>
       <c r="X40" t="n">
-        <v>10</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.2</v>
+        <v>37.99</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.271</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-09-16 09:15:50</t>
+          <t>2026-09-16 13:24:15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5261,7 +5211,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.275</t>
+          <t>Mouse session - Score: 0.358</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5289,7 +5239,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>09:15:50</t>
+          <t>13:24:15</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5298,58 +5248,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>13766</v>
+        <v>25265</v>
       </c>
       <c r="L41" t="n">
-        <v>13766</v>
+        <v>25265</v>
       </c>
       <c r="M41" t="n">
-        <v>16024.65</v>
+        <v>36852.11</v>
       </c>
       <c r="N41" t="n">
-        <v>9614.790000000001</v>
+        <v>22111.26</v>
       </c>
       <c r="O41" t="n">
-        <v>6409.86</v>
+        <v>14740.84</v>
       </c>
       <c r="P41" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R41" t="n">
-        <v>177.37</v>
+        <v>58.84</v>
       </c>
       <c r="S41" t="n">
-        <v>90.34</v>
+        <v>626.29</v>
       </c>
       <c r="T41" t="n">
-        <v>26.24</v>
+        <v>47.84</v>
       </c>
       <c r="U41" t="n">
-        <v>54.21</v>
+        <v>375.77</v>
       </c>
       <c r="V41" t="n">
-        <v>36.14</v>
+        <v>250.52</v>
       </c>
       <c r="W41" t="n">
-        <v>20.89</v>
+        <v>18.94</v>
       </c>
       <c r="X41" t="n">
-        <v>12.06</v>
+        <v>11.45</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.37</v>
+        <v>58.84</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.275</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-09-16 10:09:05</t>
+          <t>2026-09-16 10:53:06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5359,7 +5309,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.370</t>
+          <t>Mouse session - Score: 0.357</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5387,7 +5337,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10:09:05</t>
+          <t>10:53:06</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5396,58 +5346,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>13916</v>
+        <v>26722</v>
       </c>
       <c r="L42" t="n">
-        <v>13916</v>
+        <v>26722</v>
       </c>
       <c r="M42" t="n">
-        <v>25461.45</v>
+        <v>22441.74</v>
       </c>
       <c r="N42" t="n">
-        <v>15276.87</v>
+        <v>13465.04</v>
       </c>
       <c r="O42" t="n">
-        <v>10184.58</v>
+        <v>8976.690000000001</v>
       </c>
       <c r="P42" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R42" t="n">
-        <v>120.57</v>
+        <v>118.03</v>
       </c>
       <c r="S42" t="n">
-        <v>211.18</v>
+        <v>190.13</v>
       </c>
       <c r="T42" t="n">
-        <v>21.13</v>
+        <v>30.94</v>
       </c>
       <c r="U42" t="n">
-        <v>126.71</v>
+        <v>114.08</v>
       </c>
       <c r="V42" t="n">
-        <v>84.47</v>
+        <v>76.05</v>
       </c>
       <c r="W42" t="n">
-        <v>14.69</v>
+        <v>17.98</v>
       </c>
       <c r="X42" t="n">
-        <v>28.04</v>
+        <v>26.23</v>
       </c>
       <c r="Y42" t="n">
-        <v>120.57</v>
+        <v>118.03</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.37</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-09-16 13:17:01</t>
+          <t>2026-09-16 16:52:03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5457,7 +5407,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.359</t>
+          <t>Mouse session - Score: 0.363</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5485,7 +5435,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>13:17:01</t>
+          <t>16:52:03</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5494,58 +5444,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>13531</v>
+        <v>10317</v>
       </c>
       <c r="L43" t="n">
-        <v>13531</v>
+        <v>10317</v>
       </c>
       <c r="M43" t="n">
-        <v>14391.76</v>
+        <v>37409.9</v>
       </c>
       <c r="N43" t="n">
-        <v>8635.059999999999</v>
+        <v>22445.94</v>
       </c>
       <c r="O43" t="n">
-        <v>5756.71</v>
+        <v>14963.96</v>
       </c>
       <c r="P43" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>130.23</v>
+        <v>83.86</v>
       </c>
       <c r="S43" t="n">
-        <v>110.51</v>
+        <v>446.09</v>
       </c>
       <c r="T43" t="n">
         <v>25.55</v>
       </c>
       <c r="U43" t="n">
-        <v>66.31</v>
+        <v>267.65</v>
       </c>
       <c r="V43" t="n">
-        <v>44.2</v>
+        <v>178.43</v>
       </c>
       <c r="W43" t="n">
-        <v>21.21</v>
+        <v>16.28</v>
       </c>
       <c r="X43" t="n">
-        <v>27.43</v>
+        <v>9.49</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.23</v>
+        <v>83.86</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.359</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-09-17 13:46:53</t>
+          <t>2026-09-17 12:32:01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5555,7 +5505,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.881</t>
+          <t>Mouse session - Score: 0.349</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5570,11 +5520,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -5583,7 +5533,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>13:46:53</t>
+          <t>12:32:01</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5592,58 +5542,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>18601</v>
+        <v>27168</v>
       </c>
       <c r="L44" t="n">
-        <v>18601</v>
+        <v>27168</v>
       </c>
       <c r="M44" t="n">
-        <v>8471.09</v>
+        <v>33163.74</v>
       </c>
       <c r="N44" t="n">
-        <v>5082.65</v>
+        <v>19898.25</v>
       </c>
       <c r="O44" t="n">
-        <v>3388.44</v>
+        <v>13265.5</v>
       </c>
       <c r="P44" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="Q44" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R44" t="n">
-        <v>59.02</v>
+        <v>162.24</v>
       </c>
       <c r="S44" t="n">
-        <v>143.53</v>
+        <v>204.41</v>
       </c>
       <c r="T44" t="n">
-        <v>15.22</v>
+        <v>47.92</v>
       </c>
       <c r="U44" t="n">
-        <v>86.12</v>
+        <v>122.65</v>
       </c>
       <c r="V44" t="n">
-        <v>57.41</v>
+        <v>81.77</v>
       </c>
       <c r="W44" t="n">
-        <v>13.78</v>
+        <v>5.1</v>
       </c>
       <c r="X44" t="n">
-        <v>12.36</v>
+        <v>25.88</v>
       </c>
       <c r="Y44" t="n">
-        <v>59.02</v>
+        <v>162.24</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.881</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-09-17 10:04:58</t>
+          <t>2026-09-17 12:44:48</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5653,7 +5603,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.406</t>
+          <t>Mouse session - Score: 0.314</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5681,7 +5631,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10:04:58</t>
+          <t>12:44:48</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5690,58 +5640,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>7807</v>
+        <v>11893</v>
       </c>
       <c r="L45" t="n">
-        <v>7807</v>
+        <v>11893</v>
       </c>
       <c r="M45" t="n">
-        <v>9453.610000000001</v>
+        <v>38097.36</v>
       </c>
       <c r="N45" t="n">
-        <v>5672.17</v>
+        <v>22858.42</v>
       </c>
       <c r="O45" t="n">
-        <v>3781.45</v>
+        <v>15238.95</v>
       </c>
       <c r="P45" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="R45" t="n">
-        <v>102.09</v>
+        <v>99.25</v>
       </c>
       <c r="S45" t="n">
-        <v>92.59999999999999</v>
+        <v>383.85</v>
       </c>
       <c r="T45" t="n">
-        <v>22.6</v>
+        <v>46.65</v>
       </c>
       <c r="U45" t="n">
-        <v>55.56</v>
+        <v>230.31</v>
       </c>
       <c r="V45" t="n">
-        <v>37.04</v>
+        <v>153.54</v>
       </c>
       <c r="W45" t="n">
-        <v>20.06</v>
+        <v>15.05</v>
       </c>
       <c r="X45" t="n">
-        <v>26.28</v>
+        <v>19.13</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.09</v>
+        <v>99.25</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.406</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-09-17 10:03:09</t>
+          <t>2026-09-17 09:24:51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5751,7 +5701,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.376</t>
+          <t>Mouse session - Score: 0.397</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5779,7 +5729,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10:03:09</t>
+          <t>09:24:51</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5788,58 +5738,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>18629</v>
+        <v>18780</v>
       </c>
       <c r="L46" t="n">
-        <v>18629</v>
+        <v>18780</v>
       </c>
       <c r="M46" t="n">
-        <v>22203.05</v>
+        <v>13389.64</v>
       </c>
       <c r="N46" t="n">
-        <v>13321.83</v>
+        <v>8033.79</v>
       </c>
       <c r="O46" t="n">
-        <v>8881.219999999999</v>
+        <v>5355.86</v>
       </c>
       <c r="P46" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="R46" t="n">
-        <v>90.81999999999999</v>
+        <v>148.27</v>
       </c>
       <c r="S46" t="n">
-        <v>244.48</v>
+        <v>90.3</v>
       </c>
       <c r="T46" t="n">
-        <v>46.02</v>
+        <v>42.23</v>
       </c>
       <c r="U46" t="n">
-        <v>146.69</v>
+        <v>54.18</v>
       </c>
       <c r="V46" t="n">
-        <v>97.79000000000001</v>
+        <v>36.12</v>
       </c>
       <c r="W46" t="n">
-        <v>8.76</v>
+        <v>5.01</v>
       </c>
       <c r="X46" t="n">
-        <v>26.77</v>
+        <v>12.03</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.81999999999999</v>
+        <v>148.27</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.376</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-09-18 12:22:51</t>
+          <t>2026-09-18 12:05:45</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5849,7 +5799,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.353</t>
+          <t>Mouse session - Score: 0.449</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5877,7 +5827,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12:22:51</t>
+          <t>12:05:45</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5886,58 +5836,58 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>14123</v>
+        <v>22781</v>
       </c>
       <c r="L47" t="n">
-        <v>14123</v>
+        <v>22781</v>
       </c>
       <c r="M47" t="n">
-        <v>27243.21</v>
+        <v>14131.9</v>
       </c>
       <c r="N47" t="n">
-        <v>16345.93</v>
+        <v>8479.139999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>10897.29</v>
+        <v>5652.76</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R47" t="n">
-        <v>167.26</v>
+        <v>162.91</v>
       </c>
       <c r="S47" t="n">
-        <v>162.88</v>
+        <v>86.75</v>
       </c>
       <c r="T47" t="n">
-        <v>11.55</v>
+        <v>15.93</v>
       </c>
       <c r="U47" t="n">
-        <v>97.73</v>
+        <v>52.05</v>
       </c>
       <c r="V47" t="n">
-        <v>65.15000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="W47" t="n">
-        <v>18.34</v>
+        <v>20.39</v>
       </c>
       <c r="X47" t="n">
-        <v>18.43</v>
+        <v>15.88</v>
       </c>
       <c r="Y47" t="n">
-        <v>167.26</v>
+        <v>162.91</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.353</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-09-18 17:26:52</t>
+          <t>2026-09-18 10:01:42</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5947,7 +5897,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.352</t>
+          <t>Mouse session - Score: 0.449</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5975,7 +5925,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>17:26:52</t>
+          <t>10:01:42</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5984,58 +5934,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>9163</v>
+        <v>28489</v>
       </c>
       <c r="L48" t="n">
-        <v>9163</v>
+        <v>28489</v>
       </c>
       <c r="M48" t="n">
-        <v>25475.49</v>
+        <v>22507.18</v>
       </c>
       <c r="N48" t="n">
-        <v>15285.29</v>
+        <v>13504.31</v>
       </c>
       <c r="O48" t="n">
-        <v>10190.19</v>
+        <v>9002.870000000001</v>
       </c>
       <c r="P48" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="R48" t="n">
-        <v>137.37</v>
+        <v>83.3</v>
       </c>
       <c r="S48" t="n">
-        <v>185.45</v>
+        <v>270.18</v>
       </c>
       <c r="T48" t="n">
-        <v>26.89</v>
+        <v>32.58</v>
       </c>
       <c r="U48" t="n">
-        <v>111.27</v>
+        <v>162.11</v>
       </c>
       <c r="V48" t="n">
-        <v>74.18000000000001</v>
+        <v>108.07</v>
       </c>
       <c r="W48" t="n">
-        <v>2.04</v>
+        <v>16.29</v>
       </c>
       <c r="X48" t="n">
-        <v>22.04</v>
+        <v>26.49</v>
       </c>
       <c r="Y48" t="n">
-        <v>137.37</v>
+        <v>83.3</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.352</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-09-18 15:16:48</t>
+          <t>2026-09-18 14:49:19</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6045,7 +5995,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.373</t>
+          <t>Mouse session - Score: 0.290</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6073,7 +6023,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>15:16:48</t>
+          <t>14:49:19</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6082,58 +6032,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>23315</v>
+        <v>16631</v>
       </c>
       <c r="L49" t="n">
-        <v>23315</v>
+        <v>16631</v>
       </c>
       <c r="M49" t="n">
-        <v>34351.67</v>
+        <v>35678</v>
       </c>
       <c r="N49" t="n">
-        <v>20611</v>
+        <v>21406.8</v>
       </c>
       <c r="O49" t="n">
-        <v>13740.67</v>
+        <v>14271.2</v>
       </c>
       <c r="P49" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R49" t="n">
-        <v>34.04</v>
+        <v>37.23</v>
       </c>
       <c r="S49" t="n">
-        <v>1009.05</v>
+        <v>958.29</v>
       </c>
       <c r="T49" t="n">
-        <v>16.83</v>
+        <v>30.89</v>
       </c>
       <c r="U49" t="n">
-        <v>605.4299999999999</v>
+        <v>574.97</v>
       </c>
       <c r="V49" t="n">
-        <v>403.62</v>
+        <v>383.32</v>
       </c>
       <c r="W49" t="n">
-        <v>20.03</v>
+        <v>22.43</v>
       </c>
       <c r="X49" t="n">
-        <v>29.53</v>
+        <v>12.18</v>
       </c>
       <c r="Y49" t="n">
-        <v>34.04</v>
+        <v>37.23</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.373</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-09-19 09:50:36</t>
+          <t>2026-09-20 09:15:02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6143,7 +6093,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.376</t>
+          <t>Mouse session - Score: 0.846</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6153,25 +6103,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20260919_000</t>
+          <t>MOUSE_20260920_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>09:50:36</t>
+          <t>09:15:02</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6180,58 +6130,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>20894</v>
+        <v>17638</v>
       </c>
       <c r="L50" t="n">
-        <v>20894</v>
+        <v>17638</v>
       </c>
       <c r="M50" t="n">
-        <v>6837.89</v>
+        <v>38687.3</v>
       </c>
       <c r="N50" t="n">
-        <v>4102.74</v>
+        <v>23212.38</v>
       </c>
       <c r="O50" t="n">
-        <v>2735.16</v>
+        <v>15474.92</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q50" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50" t="n">
-        <v>31.29</v>
+        <v>106.33</v>
       </c>
       <c r="S50" t="n">
-        <v>218.52</v>
+        <v>363.86</v>
       </c>
       <c r="T50" t="n">
-        <v>26.19</v>
+        <v>46.12</v>
       </c>
       <c r="U50" t="n">
-        <v>131.11</v>
+        <v>218.31</v>
       </c>
       <c r="V50" t="n">
-        <v>87.41</v>
+        <v>145.54</v>
       </c>
       <c r="W50" t="n">
-        <v>23.59</v>
+        <v>25.11</v>
       </c>
       <c r="X50" t="n">
-        <v>3.66</v>
+        <v>5.12</v>
       </c>
       <c r="Y50" t="n">
-        <v>31.29</v>
+        <v>106.33</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.376</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-09-19 14:57:54</t>
+          <t>2026-09-20 09:06:03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6241,7 +6191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.389</t>
+          <t>Mouse session - Score: 0.447</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6251,7 +6201,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20260919_001</t>
+          <t>MOUSE_20260920_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6264,12 +6214,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>14:57:54</t>
+          <t>09:06:03</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6278,58 +6228,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>25502</v>
+        <v>17872</v>
       </c>
       <c r="L51" t="n">
-        <v>25502</v>
+        <v>17872</v>
       </c>
       <c r="M51" t="n">
-        <v>32568.33</v>
+        <v>8885.219999999999</v>
       </c>
       <c r="N51" t="n">
-        <v>19541</v>
+        <v>5331.13</v>
       </c>
       <c r="O51" t="n">
-        <v>13027.33</v>
+        <v>3554.09</v>
       </c>
       <c r="P51" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R51" t="n">
-        <v>44.02</v>
+        <v>145.68</v>
       </c>
       <c r="S51" t="n">
-        <v>739.85</v>
+        <v>60.99</v>
       </c>
       <c r="T51" t="n">
-        <v>34.01</v>
+        <v>31.83</v>
       </c>
       <c r="U51" t="n">
-        <v>443.91</v>
+        <v>36.59</v>
       </c>
       <c r="V51" t="n">
-        <v>295.94</v>
+        <v>24.4</v>
       </c>
       <c r="W51" t="n">
-        <v>13.37</v>
+        <v>20.92</v>
       </c>
       <c r="X51" t="n">
-        <v>28.6</v>
+        <v>12.93</v>
       </c>
       <c r="Y51" t="n">
-        <v>44.02</v>
+        <v>145.68</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.389</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-09-19 15:24:07</t>
+          <t>2026-09-20 17:56:18</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6339,7 +6289,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.281</t>
+          <t>Mouse session - Score: 0.357</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6349,7 +6299,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20260919_002</t>
+          <t>MOUSE_20260920_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6362,12 +6312,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>15:24:07</t>
+          <t>17:56:18</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6376,58 +6326,58 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>7640</v>
+        <v>15817</v>
       </c>
       <c r="L52" t="n">
-        <v>7640</v>
+        <v>15817</v>
       </c>
       <c r="M52" t="n">
-        <v>21731.88</v>
+        <v>11393.56</v>
       </c>
       <c r="N52" t="n">
-        <v>13039.13</v>
+        <v>6836.14</v>
       </c>
       <c r="O52" t="n">
-        <v>8692.75</v>
+        <v>4557.42</v>
       </c>
       <c r="P52" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="Q52" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R52" t="n">
-        <v>70.15000000000001</v>
+        <v>102.78</v>
       </c>
       <c r="S52" t="n">
-        <v>309.8</v>
+        <v>110.86</v>
       </c>
       <c r="T52" t="n">
-        <v>45.51</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U52" t="n">
-        <v>185.88</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="V52" t="n">
-        <v>123.92</v>
+        <v>44.34</v>
       </c>
       <c r="W52" t="n">
-        <v>24.62</v>
+        <v>16.24</v>
       </c>
       <c r="X52" t="n">
-        <v>6.33</v>
+        <v>21.24</v>
       </c>
       <c r="Y52" t="n">
-        <v>70.15000000000001</v>
+        <v>102.78</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.281</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-09-21 14:19:31</t>
+          <t>2026-09-21 16:05:41</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6437,7 +6387,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.936</t>
+          <t>Mouse session - Score: 0.381</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -6452,11 +6402,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -6465,7 +6415,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>14:19:31</t>
+          <t>16:05:41</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6474,58 +6424,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>22826</v>
+        <v>20344</v>
       </c>
       <c r="L53" t="n">
-        <v>22826</v>
+        <v>20344</v>
       </c>
       <c r="M53" t="n">
-        <v>8354.959999999999</v>
+        <v>39737.47</v>
       </c>
       <c r="N53" t="n">
-        <v>5012.98</v>
+        <v>23842.48</v>
       </c>
       <c r="O53" t="n">
-        <v>3341.98</v>
+        <v>15894.99</v>
       </c>
       <c r="P53" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="R53" t="n">
-        <v>160.83</v>
+        <v>91.05</v>
       </c>
       <c r="S53" t="n">
-        <v>51.95</v>
+        <v>436.44</v>
       </c>
       <c r="T53" t="n">
-        <v>28.76</v>
+        <v>18.03</v>
       </c>
       <c r="U53" t="n">
-        <v>31.17</v>
+        <v>261.86</v>
       </c>
       <c r="V53" t="n">
-        <v>20.78</v>
+        <v>174.58</v>
       </c>
       <c r="W53" t="n">
-        <v>23.44</v>
+        <v>11.58</v>
       </c>
       <c r="X53" t="n">
-        <v>5.44</v>
+        <v>7.07</v>
       </c>
       <c r="Y53" t="n">
-        <v>160.83</v>
+        <v>91.05</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-09-21 17:48:53</t>
+          <t>2026-09-21 11:02:42</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6535,7 +6485,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.411</t>
+          <t>Mouse session - Score: 0.348</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6563,7 +6513,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>17:48:53</t>
+          <t>11:02:42</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6572,58 +6522,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>22528</v>
+        <v>6695</v>
       </c>
       <c r="L54" t="n">
-        <v>22528</v>
+        <v>6695</v>
       </c>
       <c r="M54" t="n">
-        <v>9532.559999999999</v>
+        <v>8301.59</v>
       </c>
       <c r="N54" t="n">
-        <v>5719.54</v>
+        <v>4980.95</v>
       </c>
       <c r="O54" t="n">
-        <v>3813.03</v>
+        <v>3320.63</v>
       </c>
       <c r="P54" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="Q54" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R54" t="n">
-        <v>65.8</v>
+        <v>147.34</v>
       </c>
       <c r="S54" t="n">
-        <v>144.87</v>
+        <v>56.34</v>
       </c>
       <c r="T54" t="n">
-        <v>11.34</v>
+        <v>46.67</v>
       </c>
       <c r="U54" t="n">
-        <v>86.92</v>
+        <v>33.81</v>
       </c>
       <c r="V54" t="n">
-        <v>57.95</v>
+        <v>22.54</v>
       </c>
       <c r="W54" t="n">
-        <v>18.53</v>
+        <v>24.86</v>
       </c>
       <c r="X54" t="n">
-        <v>10.56</v>
+        <v>26.86</v>
       </c>
       <c r="Y54" t="n">
-        <v>65.8</v>
+        <v>147.34</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.411</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-09-21 13:48:41</t>
+          <t>2026-09-21 10:14:11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6633,7 +6583,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.434</t>
+          <t>Mouse session - Score: 0.286</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6661,7 +6611,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>13:48:41</t>
+          <t>10:14:11</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6670,52 +6620,52 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>15832</v>
+        <v>7330</v>
       </c>
       <c r="L55" t="n">
-        <v>15832</v>
+        <v>7330</v>
       </c>
       <c r="M55" t="n">
-        <v>28443.97</v>
+        <v>9613.309999999999</v>
       </c>
       <c r="N55" t="n">
-        <v>17066.38</v>
+        <v>5767.99</v>
       </c>
       <c r="O55" t="n">
-        <v>11377.59</v>
+        <v>3845.33</v>
       </c>
       <c r="P55" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R55" t="n">
-        <v>73.94</v>
+        <v>168.47</v>
       </c>
       <c r="S55" t="n">
-        <v>384.67</v>
+        <v>57.06</v>
       </c>
       <c r="T55" t="n">
-        <v>42.29</v>
+        <v>32.11</v>
       </c>
       <c r="U55" t="n">
-        <v>230.8</v>
+        <v>34.24</v>
       </c>
       <c r="V55" t="n">
-        <v>153.87</v>
+        <v>22.82</v>
       </c>
       <c r="W55" t="n">
-        <v>10.34</v>
+        <v>27.4</v>
       </c>
       <c r="X55" t="n">
-        <v>19.23</v>
+        <v>21.07</v>
       </c>
       <c r="Y55" t="n">
-        <v>73.94</v>
+        <v>168.47</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.434</v>
+        <v>0.286</v>
       </c>
     </row>
   </sheetData>
@@ -6729,7 +6679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6792,20 +6742,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-09-01 10:49:00</t>
+          <t>2026-09-01 14:58:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-09-01 15:49:57</t>
+          <t>2026-09-01 17:54:33</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18057</v>
+        <v>10593</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>02:56:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6822,7 +6772,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20260902_00</t>
+          <t>BROWSER_20260901_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6832,25 +6782,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-09-02 13:20:00</t>
+          <t>2026-09-01 09:36:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-09-02 19:16:04</t>
+          <t>2026-09-01 12:31:59</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21364</v>
+        <v>10559</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>05:56:00</t>
+          <t>02:55:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6862,7 +6812,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260903_00</t>
+          <t>BROWSER_20260902_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6872,25 +6822,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-09-03 15:35:00</t>
+          <t>2026-09-02 15:34:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-09-03 18:56:42</t>
+          <t>2026-09-02 21:17:11</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12102</v>
+        <v>20591</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>03:21:00</t>
+          <t>05:43:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6902,7 +6852,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BROWSER_20260903_01</t>
+          <t>BROWSER_20260903_00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6912,20 +6862,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-09-03 12:25:00</t>
+          <t>2026-09-03 13:53:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-09-03 15:34:39</t>
+          <t>2026-09-03 16:56:48</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11379</v>
+        <v>11028</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03:09:00</t>
+          <t>03:03:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6942,7 +6892,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20260904_00</t>
+          <t>BROWSER_20260903_01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6952,25 +6902,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-09-04 12:14:00</t>
+          <t>2026-09-03 13:08:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-09-04 15:02:52</t>
+          <t>2026-09-03 16:04:31</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10132</v>
+        <v>10591</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02:48:00</t>
+          <t>02:56:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6982,7 +6932,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20260904_01</t>
+          <t>BROWSER_20260904_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6992,20 +6942,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-09-04 09:18:00</t>
+          <t>2026-09-04 11:31:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-09-04 12:24:02</t>
+          <t>2026-09-04 17:41:16</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11162</v>
+        <v>22216</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>03:06:00</t>
+          <t>06:10:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7032,20 +6982,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-09-07 13:26:00</t>
+          <t>2026-09-07 10:28:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-09-07 15:58:31</t>
+          <t>2026-09-07 16:45:15</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9151</v>
+        <v>22635</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02:32:00</t>
+          <t>06:17:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7062,7 +7012,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260907_01</t>
+          <t>BROWSER_20260908_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7072,16 +7022,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-09-07 13:11:00</t>
+          <t>2026-09-08 14:27:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-09-07 15:47:08</t>
+          <t>2026-09-08 17:03:32</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9368</v>
+        <v>9392</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -7090,7 +7040,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7102,7 +7052,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260908_00</t>
+          <t>BROWSER_20260908_01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7112,20 +7062,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-09-08 12:37:00</t>
+          <t>2026-09-08 14:40:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-09-08 16:06:05</t>
+          <t>2026-09-08 17:43:55</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12545</v>
+        <v>11035</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>03:29:00</t>
+          <t>03:03:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7142,7 +7092,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260908_01</t>
+          <t>BROWSER_20260909_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7152,25 +7102,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-09-08 15:57:00</t>
+          <t>2026-09-09 13:25:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-09-08 18:35:57</t>
+          <t>2026-09-09 19:32:41</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9537</v>
+        <v>22061</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02:38:00</t>
+          <t>06:07:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7182,7 +7132,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260909_00</t>
+          <t>BROWSER_20260910_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7192,25 +7142,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-09-09 13:00:00</t>
+          <t>2026-09-10 08:37:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-09-09 19:26:58</t>
+          <t>2026-09-10 14:12:14</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23218</v>
+        <v>20114</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>06:26:00</t>
+          <t>05:35:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7222,7 +7172,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260910_00</t>
+          <t>BROWSER_20260911_00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7232,25 +7182,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-09-10 09:32:00</t>
+          <t>2026-09-11 12:06:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-09-10 15:55:07</t>
+          <t>2026-09-11 17:31:11</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22987</v>
+        <v>19511</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>06:23:00</t>
+          <t>05:25:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7262,7 +7212,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260911_00</t>
+          <t>BROWSER_20260914_00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7272,25 +7222,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-09-11 10:20:00</t>
+          <t>2026-09-14 14:37:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-09-11 13:22:49</t>
+          <t>2026-09-14 20:30:39</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10969</v>
+        <v>21219</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>03:02:00</t>
+          <t>05:53:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7302,7 +7252,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260911_01</t>
+          <t>BROWSER_20260915_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7312,25 +7262,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-09-11 10:17:00</t>
+          <t>2026-09-15 12:31:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-09-11 13:28:59</t>
+          <t>2026-09-15 15:40:48</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11519</v>
+        <v>11388</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>03:11:00</t>
+          <t>03:09:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7342,7 +7292,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260914_00</t>
+          <t>BROWSER_20260915_01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7352,25 +7302,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-09-14 11:35:00</t>
+          <t>2026-09-15 14:51:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-09-14 17:37:10</t>
+          <t>2026-09-15 17:22:32</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21730</v>
+        <v>9092</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>06:02:00</t>
+          <t>02:31:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7382,7 +7332,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260915_00</t>
+          <t>BROWSER_20260916_00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7392,25 +7342,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-09-15 14:17:00</t>
+          <t>2026-09-16 15:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-09-15 19:39:24</t>
+          <t>2026-09-16 21:35:54</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19344</v>
+        <v>21054</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05:22:00</t>
+          <t>05:50:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7422,7 +7372,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260916_00</t>
+          <t>BROWSER_20260917_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7432,25 +7382,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-09-16 15:57:00</t>
+          <t>2026-09-17 11:20:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-09-16 21:28:50</t>
+          <t>2026-09-17 17:26:57</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19910</v>
+        <v>22017</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05:31:00</t>
+          <t>06:06:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7462,7 +7412,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260917_00</t>
+          <t>BROWSER_20260918_00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7472,25 +7422,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-09-17 12:13:00</t>
+          <t>2026-09-18 15:13:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-09-17 14:57:17</t>
+          <t>2026-09-18 18:06:38</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9857</v>
+        <v>10418</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>02:44:00</t>
+          <t>02:53:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7502,7 +7452,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260917_01</t>
+          <t>BROWSER_20260918_01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7512,25 +7462,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-09-17 12:23:00</t>
+          <t>2026-09-18 09:17:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-09-17 15:37:30</t>
+          <t>2026-09-18 12:45:48</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11670</v>
+        <v>12528</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>03:14:00</t>
+          <t>03:28:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7542,7 +7492,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20260918_00</t>
+          <t>BROWSER_20260921_00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7552,25 +7502,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-09-18 11:42:00</t>
+          <t>2026-09-21 09:53:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-09-18 14:26:32</t>
+          <t>2026-09-21 16:18:03</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9872</v>
+        <v>23103</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02:44:00</t>
+          <t>06:25:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7582,7 +7532,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20260918_01</t>
+          <t>BROWSER_20260922_00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7592,25 +7542,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-09-18 08:39:00</t>
+          <t>2026-09-22 13:47:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-09-18 11:17:51</t>
+          <t>2026-09-22 19:30:38</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9531</v>
+        <v>20618</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>02:38:00</t>
+          <t>05:43:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7622,7 +7572,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BROWSER_20260921_00</t>
+          <t>BROWSER_20260923_00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7632,25 +7582,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-09-21 10:29:00</t>
+          <t>2026-09-23 13:18:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-09-21 15:41:37</t>
+          <t>2026-09-23 16:43:42</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18757</v>
+        <v>12342</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05:12:00</t>
+          <t>03:25:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7662,7 +7612,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20260922_00</t>
+          <t>BROWSER_20260923_01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7672,25 +7622,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-09-22 12:28:00</t>
+          <t>2026-09-23 10:11:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-09-22 19:04:21</t>
+          <t>2026-09-23 13:12:06</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23781</v>
+        <v>10866</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>06:36:00</t>
+          <t>03:01:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7702,7 +7652,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BROWSER_20260923_00</t>
+          <t>BROWSER_20260924_00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7712,68 +7662,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-09-23 10:42:00</t>
+          <t>2026-09-24 12:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-09-23 17:13:37</t>
+          <t>2026-09-24 18:07:30</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23497</v>
+        <v>20250</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>06:31:00</t>
+          <t>05:37:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>BROWSER_20260924_00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2026-09-24 14:11:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2026-09-24 20:40:11</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>23351</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>06:29:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2026-09-24</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
